--- a/bit32.xlsx
+++ b/bit32.xlsx
@@ -289,6 +289,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,13 +305,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,6 +320,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,19 +645,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45430F8D-B03E-4031-868D-3CA148D15F0E}">
   <dimension ref="A1:AO43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
       <selection activeCell="T33" sqref="T33:AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="8.7265625" style="8"/>
     <col min="2" max="2" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="35" width="4.6328125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="8.7265625" style="11"/>
-    <col min="37" max="37" width="6.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.7265625" style="11"/>
+    <col min="36" max="36" width="8.7265625" style="8"/>
+    <col min="37" max="37" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -755,1111 +759,1111 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="8"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="13"/>
     </row>
     <row r="3" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="D3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="6" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="8"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="13"/>
     </row>
     <row r="4" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="D4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="6" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="6" t="s">
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="8"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="13"/>
     </row>
     <row r="5" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="D5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="6" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="8"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="13"/>
     </row>
     <row r="6" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="D6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="6" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="6" t="s">
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="8"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="13"/>
     </row>
     <row r="7" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
     </row>
     <row r="8" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="D8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="8"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="13"/>
     </row>
     <row r="9" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="D9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="6" t="s">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="6" t="s">
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="8"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="13"/>
     </row>
     <row r="10" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9" t="s">
+      <c r="D10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="6" t="s">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="6" t="s">
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="8"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="13"/>
     </row>
     <row r="11" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1</v>
-      </c>
-      <c r="L11" s="9" t="s">
+      <c r="D11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="6" t="s">
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="6" t="s">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="8"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="13"/>
     </row>
     <row r="12" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9" t="s">
+      <c r="D12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="6" t="s">
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="6" t="s">
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="8"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="13"/>
     </row>
     <row r="13" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1</v>
-      </c>
-      <c r="L13" s="9" t="s">
+      <c r="D13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="6" t="s">
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="6" t="s">
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="8"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="13"/>
     </row>
     <row r="14" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
     </row>
     <row r="15" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9" t="s">
+      <c r="D15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6" t="s">
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="8"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="13"/>
     </row>
     <row r="16" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9" t="s">
+      <c r="D16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>1</v>
-      </c>
-      <c r="L16" s="9">
-        <v>1</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="6" t="s">
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="6" t="s">
+      <c r="R16" s="12"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="6" t="s">
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="8"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="13"/>
     </row>
     <row r="17" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9" t="s">
+      <c r="D17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9" t="s">
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="6" t="s">
+      <c r="O17" s="6"/>
+      <c r="P17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="6" t="s">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="6" t="s">
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="8"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="13"/>
     </row>
     <row r="18" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9" t="s">
+      <c r="D18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1</v>
-      </c>
-      <c r="L18" s="9" t="s">
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="6" t="s">
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="8"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="13"/>
     </row>
     <row r="19" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9" t="s">
+      <c r="D19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="9">
-        <v>1</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9" t="s">
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9" t="s">
+      <c r="N19" s="6"/>
+      <c r="O19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="8"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="13"/>
     </row>
     <row r="20" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9" t="s">
+      <c r="D20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="9">
-        <v>1</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
     </row>
     <row r="21" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9" t="s">
+      <c r="D21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
-      <c r="J21" s="9">
-        <v>1</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6" t="s">
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="8"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="13"/>
     </row>
     <row r="22" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9" t="s">
+      <c r="D22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="9">
-        <v>1</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="8"/>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="13"/>
     </row>
     <row r="23" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
     </row>
     <row r="24" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L24" s="2" t="s">
@@ -1879,264 +1883,264 @@
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="13">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9" t="s">
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="6" t="s">
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="8"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="13"/>
     </row>
     <row r="27" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="13">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9" t="s">
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="9">
-        <v>0</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1</v>
-      </c>
-      <c r="L27" s="9" t="s">
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="6" t="s">
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="8"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="13"/>
       <c r="T27" s="3"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="6" t="s">
+      <c r="X27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="6" t="s">
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="8"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="13"/>
     </row>
     <row r="28" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="13">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9" t="s">
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <v>1</v>
-      </c>
-      <c r="L28" s="9" t="s">
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9" t="s">
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="9" t="s">
+      <c r="Q28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="R28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S28" s="9" t="s">
+      <c r="S28" s="6" t="s">
         <v>34</v>
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="8"/>
+      <c r="X28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="13"/>
     </row>
     <row r="29" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="13">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9" t="s">
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1</v>
-      </c>
-      <c r="L29" s="9" t="s">
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="9">
-        <v>1</v>
-      </c>
-      <c r="O29" s="6" t="s">
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="6" t="s">
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="6" t="s">
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="8"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="13"/>
     </row>
     <row r="30" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C30" s="13">
+      <c r="C30" s="10">
         <v>2</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
+      <c r="D30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="2" t="s">
         <v>24</v>
       </c>
@@ -2154,342 +2158,342 @@
       <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="10">
         <v>3</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9" t="s">
+      <c r="D31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="9">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9">
-        <v>1</v>
-      </c>
-      <c r="K31" s="9">
-        <v>1</v>
-      </c>
-      <c r="L31" s="9" t="s">
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-      <c r="O31" s="9" t="s">
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="6" t="s">
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="6" t="s">
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="8"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="13"/>
     </row>
     <row r="32" spans="2:35" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="10">
         <v>3</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9" t="s">
+      <c r="D32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="9">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9">
-        <v>1</v>
-      </c>
-      <c r="K32" s="9">
-        <v>1</v>
-      </c>
-      <c r="L32" s="9" t="s">
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N32" s="9">
-        <v>1</v>
-      </c>
-      <c r="O32" s="9" t="s">
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="6" t="s">
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="6" t="s">
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="8"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="13"/>
     </row>
     <row r="33" spans="2:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="10">
         <v>4</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9" t="s">
+      <c r="D33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I33" s="9">
-        <v>1</v>
-      </c>
-      <c r="J33" s="9">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9" t="s">
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9" t="s">
+      <c r="N33" s="6"/>
+      <c r="O33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="8"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="13"/>
     </row>
     <row r="34" spans="2:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="10">
         <v>5</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9" t="s">
+      <c r="D34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="9">
-        <v>1</v>
-      </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>1</v>
-      </c>
-      <c r="L34" s="6" t="s">
+      <c r="I34" s="6">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="8"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="13"/>
     </row>
     <row r="35" spans="2:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="13">
+      <c r="C35" s="10">
         <v>6</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9" t="s">
+      <c r="D35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="9">
-        <v>1</v>
-      </c>
-      <c r="J35" s="9">
-        <v>1</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
     </row>
     <row r="36" spans="2:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="10">
         <v>7</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9" t="s">
+      <c r="D36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I36" s="9">
-        <v>1</v>
-      </c>
-      <c r="J36" s="9">
-        <v>1</v>
-      </c>
-      <c r="K36" s="9">
-        <v>1</v>
-      </c>
-      <c r="L36" s="9" t="s">
+      <c r="I36" s="6">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="8"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="13"/>
     </row>
     <row r="39" spans="2:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
@@ -2591,23 +2595,23 @@
       <c r="AI39" s="2">
         <v>0</v>
       </c>
-      <c r="AK39" s="11" t="str">
+      <c r="AK39" s="8" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(D39:K39),2)</f>
         <v>F1</v>
       </c>
-      <c r="AL39" s="11" t="str">
+      <c r="AL39" s="8" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(L39:S39),2)</f>
         <v>A0</v>
       </c>
-      <c r="AM39" s="11" t="str">
+      <c r="AM39" s="8" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(T39:AA39),2)</f>
         <v>01</v>
       </c>
-      <c r="AN39" s="11" t="str">
+      <c r="AN39" s="8" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(AB39:AI39),2)</f>
         <v>00</v>
       </c>
-      <c r="AO39" s="11" t="str">
+      <c r="AO39" s="8" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,AN39,AM39,AL39,AK39)</f>
         <v>00 01 A0 F1</v>
       </c>
@@ -2712,23 +2716,23 @@
       <c r="AI40" s="2">
         <v>1</v>
       </c>
-      <c r="AK40" s="11" t="str">
-        <f t="shared" ref="AK40:AK43" si="0">BIN2HEX(_xlfn.CONCAT(D40:K40),2)</f>
+      <c r="AK40" s="8" t="str">
+        <f t="shared" ref="AK40:AK42" si="0">BIN2HEX(_xlfn.CONCAT(D40:K40),2)</f>
         <v>F1</v>
       </c>
-      <c r="AL40" s="11" t="str">
+      <c r="AL40" s="8" t="str">
         <f t="shared" ref="AL40:AL42" si="1">BIN2HEX(_xlfn.CONCAT(L40:S40),2)</f>
         <v>A0</v>
       </c>
-      <c r="AM40" s="11" t="str">
+      <c r="AM40" s="8" t="str">
         <f t="shared" ref="AM40:AM42" si="2">BIN2HEX(_xlfn.CONCAT(T40:AA40),2)</f>
         <v>1C</v>
       </c>
-      <c r="AN40" s="11" t="str">
+      <c r="AN40" s="8" t="str">
         <f t="shared" ref="AN40:AN42" si="3">BIN2HEX(_xlfn.CONCAT(AB40:AI40),2)</f>
         <v>01</v>
       </c>
-      <c r="AO40" s="11" t="str">
+      <c r="AO40" s="8" t="str">
         <f t="shared" ref="AO40:AO42" si="4">_xlfn.TEXTJOIN(" ",TRUE,AN40,AM40,AL40,AK40)</f>
         <v>01 1C A0 F1</v>
       </c>
@@ -2833,23 +2837,23 @@
       <c r="AI41" s="2">
         <v>0</v>
       </c>
-      <c r="AK41" s="11" t="str">
+      <c r="AK41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>F3</v>
       </c>
-      <c r="AL41" s="11" t="str">
+      <c r="AL41" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B0</v>
       </c>
-      <c r="AM41" s="11" t="str">
+      <c r="AM41" s="8" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AN41" s="11" t="str">
+      <c r="AN41" s="8" t="str">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="AO41" s="11" t="str">
+      <c r="AO41" s="8" t="str">
         <f t="shared" si="4"/>
         <v>10 00 B0 F3</v>
       </c>
@@ -2954,23 +2958,23 @@
       <c r="AI42" s="2">
         <v>0</v>
       </c>
-      <c r="AK42" s="11" t="str">
+      <c r="AK42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>F3</v>
       </c>
-      <c r="AL42" s="11" t="str">
+      <c r="AL42" s="8" t="str">
         <f t="shared" si="1"/>
         <v>A0</v>
       </c>
-      <c r="AM42" s="11" t="str">
+      <c r="AM42" s="8" t="str">
         <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="AN42" s="11" t="str">
+      <c r="AN42" s="8" t="str">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="AO42" s="11" t="str">
+      <c r="AO42" s="8" t="str">
         <f t="shared" si="4"/>
         <v>12 00 A0 F3</v>
       </c>
@@ -3075,35 +3079,104 @@
       <c r="AI43" s="2">
         <v>0</v>
       </c>
-      <c r="AK43" s="11" t="str">
+      <c r="AK43" s="8" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(D43:K43),2)</f>
         <v>F0</v>
       </c>
-      <c r="AL43" s="11" t="str">
+      <c r="AL43" s="8" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(L43:S43),2)</f>
         <v>00</v>
       </c>
-      <c r="AM43" s="11" t="str">
+      <c r="AM43" s="8" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(T43:AA43),2)</f>
         <v>00</v>
       </c>
-      <c r="AN43" s="11" t="str">
+      <c r="AN43" s="8" t="str">
         <f>BIN2HEX(_xlfn.CONCAT(AB43:AI43),2)</f>
         <v>04</v>
       </c>
-      <c r="AO43" s="11" t="str">
+      <c r="AO43" s="8" t="str">
         <f>_xlfn.TEXTJOIN(" ",TRUE,AN43,AM43,AL43,AK43)</f>
         <v>04 00 00 F0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="L2:AI2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="R5:AE5"/>
+    <mergeCell ref="R6:AA6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="L8:AI8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="R11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="L15:AI15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="R13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="L21:AI21"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="L26:AI26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="O27:S27"/>
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="L34:AI34"/>
     <mergeCell ref="D36:G36"/>
@@ -3120,84 +3193,15 @@
     <mergeCell ref="AF33:AI33"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="T32:AA32"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="X31:AA31"/>
+    <mergeCell ref="O29:S29"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="AB29:AE29"/>
     <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="L26:AI26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="L21:AI21"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="L15:AI15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="X16:AA16"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="R13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="R11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="L8:AI8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="R5:AE5"/>
-    <mergeCell ref="R6:AA6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="L2:AI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bit32.xlsx
+++ b/bit32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urbanscience365-my.sharepoint.com/personal/ccslon_urbanscience_com/Documents/Documents/GitHub/bit32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="8_{D0DB83F3-0858-471A-BAC2-A6467F8CD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C1B563-C357-4067-A100-E8D6ADCA947C}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="8_{D0DB83F3-0858-471A-BAC2-A6467F8CD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B97B5C0-A87B-4A67-B68C-2BD00A9C96D6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DF3CAF5-54C2-4912-9895-78D5623C5C88}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Immediate</t>
+  </si>
+  <si>
+    <t>Code24</t>
   </si>
 </sst>
 </file>
@@ -238,6 +238,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,7 +248,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +589,7 @@
   <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+      <selection activeCell="T10" sqref="T10:AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -703,17 +703,17 @@
     </row>
     <row r="2" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
@@ -726,32 +726,32 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="10"/>
     </row>
     <row r="3" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
@@ -760,12 +760,12 @@
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
@@ -779,43 +779,43 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="10"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="7" t="s">
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="10"/>
     </row>
     <row r="4" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
@@ -824,12 +824,12 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
@@ -843,11 +843,11 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N4" s="3">
         <v>0</v>
       </c>
@@ -864,30 +864,30 @@
         <v>0</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="9"/>
+      <c r="X4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="10"/>
     </row>
     <row r="5" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
@@ -896,12 +896,12 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="D5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
@@ -915,97 +915,97 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="7" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="10"/>
     </row>
     <row r="6" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
     </row>
     <row r="7" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1018,46 +1018,46 @@
       <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="9"/>
+      <c r="L7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="10"/>
     </row>
     <row r="8" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="D8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1071,16 +1071,16 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1090,38 +1090,38 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="7" t="s">
+      <c r="X8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="7" t="s">
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="10"/>
     </row>
     <row r="9" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="D9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1135,57 +1135,57 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="7" t="s">
+      <c r="T9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="10"/>
     </row>
     <row r="10" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6">
         <v>5</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="D10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1199,90 +1199,90 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="9"/>
+      <c r="T10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="10"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="9"/>
+      <c r="AF10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="10"/>
     </row>
     <row r="11" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
     </row>
     <row r="12" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="D12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1296,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1319,16 +1319,16 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="9"/>
+      <c r="AF12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="10"/>
     </row>
     <row r="15" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="16" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="17" spans="2:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="18" spans="2:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="19" spans="2:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1933,37 +1933,37 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="L7:AI7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="L2:AI2"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="X4:AA4"/>
     <mergeCell ref="T9:AA9"/>
     <mergeCell ref="T10:AA10"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="AF12:AI12"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="AB9:AE9"/>
     <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="L2:AI2"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="L7:AI7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bit32.xlsx
+++ b/bit32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urbanscience365-my.sharepoint.com/personal/ccslon_urbanscience_com/Documents/Documents/GitHub/bit32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="8_{D0DB83F3-0858-471A-BAC2-A6467F8CD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B97B5C0-A87B-4A67-B68C-2BD00A9C96D6}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="8_{D0DB83F3-0858-471A-BAC2-A6467F8CD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D15F7186-0B12-476F-871B-5382C3F61648}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DF3CAF5-54C2-4912-9895-78D5623C5C88}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0DF3CAF5-54C2-4912-9895-78D5623C5C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
   <si>
     <t>Cond</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Code24</t>
+  </si>
+  <si>
+    <t>Const22</t>
   </si>
 </sst>
 </file>
@@ -588,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45430F8D-B03E-4031-868D-3CA148D15F0E}">
   <dimension ref="A1:AO19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10:AA10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -957,38 +960,54 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="10"/>
     </row>
     <row r="7" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
@@ -1932,18 +1951,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="L2:AI2"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="X4:AA4"/>
+  <mergeCells count="33">
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="N6:AI6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="L7:AI7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="D8:G8"/>
     <mergeCell ref="T9:AA9"/>
     <mergeCell ref="T10:AA10"/>
     <mergeCell ref="D12:G12"/>
@@ -1953,17 +1969,22 @@
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="AB9:AE9"/>
     <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="L7:AI7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="X4:AA4"/>
     <mergeCell ref="O5:S5"/>
     <mergeCell ref="T5:AA5"/>
     <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="L2:AI2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="X3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bit32.xlsx
+++ b/bit32.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urbanscience365-my.sharepoint.com/personal/ccslon_urbanscience_com/Documents/Documents/GitHub/bit32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="8_{D0DB83F3-0858-471A-BAC2-A6467F8CD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D15F7186-0B12-476F-871B-5382C3F61648}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="8_{D0DB83F3-0858-471A-BAC2-A6467F8CD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4DD8CD8-8016-4DDE-B6FB-49A62B09AF73}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0DF3CAF5-54C2-4912-9895-78D5623C5C88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0DF3CAF5-54C2-4912-9895-78D5623C5C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
   <si>
     <t>Cond</t>
   </si>
@@ -123,6 +124,99 @@
   </si>
   <si>
     <t>Const22</t>
+  </si>
+  <si>
+    <t>mov</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>adc</t>
+  </si>
+  <si>
+    <t>cmn</t>
+  </si>
+  <si>
+    <t>mvn</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>sbc</t>
+  </si>
+  <si>
+    <t>cmp</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>tst</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>teq</t>
+  </si>
+  <si>
+    <t>itf</t>
+  </si>
+  <si>
+    <t>addf</t>
+  </si>
+  <si>
+    <t>subf</t>
+  </si>
+  <si>
+    <t>mulf</t>
+  </si>
+  <si>
+    <t>divf</t>
+  </si>
+  <si>
+    <t>negf</t>
+  </si>
+  <si>
+    <t>cmpf</t>
+  </si>
+  <si>
+    <t>fti</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>shl</t>
+  </si>
+  <si>
+    <t>shr</t>
+  </si>
+  <si>
+    <t>asl</t>
+  </si>
+  <si>
+    <t>rol</t>
+  </si>
+  <si>
+    <t>ror</t>
   </si>
 </sst>
 </file>
@@ -165,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -225,11 +319,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -249,6 +423,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -591,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45430F8D-B03E-4031-868D-3CA148D15F0E}">
   <dimension ref="A1:AO19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
@@ -1952,14 +2153,22 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="N6:AI6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="L7:AI7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="L2:AI2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="T9:AA9"/>
     <mergeCell ref="T10:AA10"/>
     <mergeCell ref="D12:G12"/>
@@ -1969,24 +2178,608 @@
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="AB9:AE9"/>
     <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="L2:AI2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="N6:AI6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="L7:AI7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="D8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE129819-98AA-4AAE-B2EF-A41244FCB889}">
+  <dimension ref="A2:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="6" width="2.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15">
+        <v>1</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15">
+        <v>1</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15">
+        <v>1</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="17">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18">
+        <v>1</v>
+      </c>
+      <c r="D33" s="18">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18">
+        <v>1</v>
+      </c>
+      <c r="F33" s="19">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bit32.xlsx
+++ b/bit32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urbanscience365-my.sharepoint.com/personal/ccslon_urbanscience_com/Documents/Documents/GitHub/bit32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="8_{D0DB83F3-0858-471A-BAC2-A6467F8CD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4DD8CD8-8016-4DDE-B6FB-49A62B09AF73}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="8_{D0DB83F3-0858-471A-BAC2-A6467F8CD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD3ADB99-8855-49AB-938D-90219176DDC3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0DF3CAF5-54C2-4912-9895-78D5623C5C88}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DF3CAF5-54C2-4912-9895-78D5623C5C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>Op</t>
-  </si>
-  <si>
     <t>Const8</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>ror</t>
+  </si>
+  <si>
+    <t>Op1</t>
   </si>
 </sst>
 </file>
@@ -416,15 +416,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -450,6 +441,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45430F8D-B03E-4031-868D-3CA148D15F0E}">
   <dimension ref="A1:AO19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10:AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -907,17 +907,17 @@
     </row>
     <row r="2" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="D2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
@@ -930,32 +930,32 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="10"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="19"/>
     </row>
     <row r="3" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
@@ -964,12 +964,12 @@
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="D3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
@@ -991,35 +991,35 @@
       <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="10"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="8" t="s">
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="10"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="19"/>
     </row>
     <row r="4" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
@@ -1028,12 +1028,12 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="D4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1068,30 +1068,30 @@
         <v>0</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="10"/>
+      <c r="X4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="19"/>
     </row>
     <row r="5" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
@@ -1100,12 +1100,12 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1127,46 +1127,46 @@
       <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="8" t="s">
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="10"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="19"/>
     </row>
     <row r="6" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="D6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1185,47 +1185,47 @@
       <c r="M6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="10"/>
+      <c r="N6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="19"/>
     </row>
     <row r="7" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
+      <c r="D7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1238,46 +1238,46 @@
       <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="10"/>
+      <c r="L7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="19"/>
     </row>
     <row r="8" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="D8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1310,38 +1310,38 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="8" t="s">
+      <c r="X8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="8" t="s">
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="10"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="19"/>
     </row>
     <row r="9" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="D9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1370,42 +1370,42 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="8" t="s">
+      <c r="T9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="10"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="19"/>
     </row>
     <row r="10" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6">
         <v>5</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="D10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1432,26 +1432,26 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="10"/>
+      <c r="T10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="19"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="10"/>
+      <c r="AF10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="19"/>
     </row>
     <row r="11" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
@@ -1492,17 +1492,17 @@
     </row>
     <row r="12" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1539,16 +1539,16 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="10"/>
+      <c r="AF12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="19"/>
     </row>
     <row r="15" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="16" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="17" spans="2:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="18" spans="2:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="19" spans="2:41" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2153,13 +2153,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="L2:AI2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="N6:AI6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="L7:AI7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="T9:AA9"/>
+    <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="AF5:AI5"/>
     <mergeCell ref="D4:G4"/>
@@ -2169,23 +2179,13 @@
     <mergeCell ref="O5:S5"/>
     <mergeCell ref="T5:AA5"/>
     <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="T9:AA9"/>
-    <mergeCell ref="T10:AA10"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="N6:AI6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="L7:AI7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="L2:AI2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="X3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2196,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE129819-98AA-4AAE-B2EF-A41244FCB889}">
   <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -2210,228 +2210,228 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13"/>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13"/>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13"/>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2439,344 +2439,344 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13"/>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15">
-        <v>1</v>
-      </c>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15">
-        <v>1</v>
-      </c>
-      <c r="F17" s="16">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="14">
-        <v>1</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="14">
-        <v>1</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16">
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="14">
-        <v>1</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="16"/>
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13"/>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="14">
-        <v>1</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16">
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="14">
-        <v>1</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="14">
-        <v>1</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15">
-        <v>1</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16">
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="14">
-        <v>1</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15">
-        <v>1</v>
-      </c>
-      <c r="F24" s="16"/>
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13"/>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="14">
-        <v>1</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15">
-        <v>1</v>
-      </c>
-      <c r="F25" s="16">
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="14">
-        <v>1</v>
-      </c>
-      <c r="C26" s="15">
-        <v>1</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="14">
-        <v>1</v>
-      </c>
-      <c r="C27" s="15">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16">
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="14">
-        <v>1</v>
-      </c>
-      <c r="C28" s="15">
-        <v>1</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15">
-        <v>1</v>
-      </c>
-      <c r="F28" s="16"/>
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13"/>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="14">
-        <v>1</v>
-      </c>
-      <c r="C29" s="15">
-        <v>1</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15">
-        <v>1</v>
-      </c>
-      <c r="F29" s="16">
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="14">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15">
-        <v>1</v>
-      </c>
-      <c r="D30" s="15">
-        <v>1</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="14">
-        <v>1</v>
-      </c>
-      <c r="C31" s="15">
-        <v>1</v>
-      </c>
-      <c r="D31" s="15">
-        <v>1</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16">
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="14">
-        <v>1</v>
-      </c>
-      <c r="C32" s="15">
-        <v>1</v>
-      </c>
-      <c r="D32" s="15">
-        <v>1</v>
-      </c>
-      <c r="E32" s="15">
-        <v>1</v>
-      </c>
-      <c r="F32" s="16"/>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13"/>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="17">
-        <v>1</v>
-      </c>
-      <c r="C33" s="18">
-        <v>1</v>
-      </c>
-      <c r="D33" s="18">
-        <v>1</v>
-      </c>
-      <c r="E33" s="18">
-        <v>1</v>
-      </c>
-      <c r="F33" s="19">
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" s="15">
+        <v>1</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/bit32.xlsx
+++ b/bit32.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urbanscience365-my.sharepoint.com/personal/ccslon_urbanscience_com/Documents/Documents/GitHub/bit32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="8_{D0DB83F3-0858-471A-BAC2-A6467F8CD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD3ADB99-8855-49AB-938D-90219176DDC3}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="8_{D0DB83F3-0858-471A-BAC2-A6467F8CD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91A9D98-CC11-479B-932C-61E566ED9433}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DF3CAF5-54C2-4912-9895-78D5623C5C88}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{0DF3CAF5-54C2-4912-9895-78D5623C5C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Format" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="71">
   <si>
     <t>Cond</t>
   </si>
@@ -217,13 +218,46 @@
   </si>
   <si>
     <t>Op1</t>
+  </si>
+  <si>
+    <t>Unary ALU operation</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>ALU operation w/immediate</t>
+  </si>
+  <si>
+    <t>Load/store register offset</t>
+  </si>
+  <si>
+    <t>Load/store immediate offset</t>
+  </si>
+  <si>
+    <t>Push/pop register</t>
+  </si>
+  <si>
+    <t>Load word</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>ALU operation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,13 +284,31 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -403,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -452,6 +504,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45430F8D-B03E-4031-868D-3CA148D15F0E}">
   <dimension ref="A1:AO19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10:AA10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -801,7 +877,8 @@
     <col min="1" max="1" width="8.7265625" style="4"/>
     <col min="2" max="2" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="35" width="4.6328125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="4.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="35" width="4.6328125" style="2" customWidth="1"/>
     <col min="36" max="36" width="8.7265625" style="4"/>
     <col min="37" max="37" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="8.7265625" style="4"/>
@@ -2153,14 +2230,22 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="N6:AI6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="L7:AI7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="L2:AI2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="T9:AA9"/>
     <mergeCell ref="T10:AA10"/>
     <mergeCell ref="D12:G12"/>
@@ -2170,22 +2255,14 @@
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="AB9:AE9"/>
     <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="L2:AI2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="N6:AI6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="L7:AI7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="D8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2193,6 +2270,2161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92F46C0-F63C-4669-97B8-D1AEF4AA3072}">
+  <dimension ref="B3:AJ40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="2.81640625" customWidth="1"/>
+    <col min="3" max="34" width="4.453125" customWidth="1"/>
+    <col min="35" max="35" width="1.36328125" customWidth="1"/>
+    <col min="36" max="36" width="35.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:36" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21">
+        <v>31</v>
+      </c>
+      <c r="D3" s="21">
+        <v>30</v>
+      </c>
+      <c r="E3" s="21">
+        <v>29</v>
+      </c>
+      <c r="F3" s="21">
+        <v>28</v>
+      </c>
+      <c r="G3" s="21">
+        <v>27</v>
+      </c>
+      <c r="H3" s="21">
+        <v>26</v>
+      </c>
+      <c r="I3" s="21">
+        <v>25</v>
+      </c>
+      <c r="J3" s="21">
+        <v>24</v>
+      </c>
+      <c r="K3" s="21">
+        <v>23</v>
+      </c>
+      <c r="L3" s="21">
+        <v>22</v>
+      </c>
+      <c r="M3" s="21">
+        <v>21</v>
+      </c>
+      <c r="N3" s="21">
+        <v>20</v>
+      </c>
+      <c r="O3" s="21">
+        <v>19</v>
+      </c>
+      <c r="P3" s="21">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>17</v>
+      </c>
+      <c r="R3" s="21">
+        <v>16</v>
+      </c>
+      <c r="S3" s="21">
+        <v>15</v>
+      </c>
+      <c r="T3" s="21">
+        <v>14</v>
+      </c>
+      <c r="U3" s="21">
+        <v>13</v>
+      </c>
+      <c r="V3" s="21">
+        <v>12</v>
+      </c>
+      <c r="W3" s="21">
+        <v>11</v>
+      </c>
+      <c r="X3" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="21">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="21">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="21">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+    </row>
+    <row r="4" spans="2:36" ht="21" x14ac:dyDescent="0.5">
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27">
+        <v>0</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0</v>
+      </c>
+      <c r="J4" s="27">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" ht="21" x14ac:dyDescent="0.5">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0</v>
+      </c>
+      <c r="J5" s="27">
+        <v>1</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="27">
+        <v>0</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" ht="21" x14ac:dyDescent="0.5">
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <v>1</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="27">
+        <v>0</v>
+      </c>
+      <c r="N6" s="27">
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
+        <v>0</v>
+      </c>
+      <c r="P6" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>0</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" ht="21" x14ac:dyDescent="0.5">
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <v>1</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="27">
+        <v>1</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" ht="21" x14ac:dyDescent="0.5">
+      <c r="B8" s="23">
+        <v>2</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" ht="21" x14ac:dyDescent="0.5">
+      <c r="B9" s="23">
+        <v>3</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" ht="21" x14ac:dyDescent="0.5">
+      <c r="B10" s="23">
+        <v>4</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
+      <c r="J10" s="27">
+        <v>1</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="27">
+        <v>0</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" ht="21" x14ac:dyDescent="0.5">
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
+      <c r="J11" s="27">
+        <v>1</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="27">
+        <v>1</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" ht="21" x14ac:dyDescent="0.5">
+      <c r="B12" s="23">
+        <v>5</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="27">
+        <v>1</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" ht="21" x14ac:dyDescent="0.5">
+      <c r="B13" s="23">
+        <v>6</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" ht="21" x14ac:dyDescent="0.5">
+      <c r="B14" s="23">
+        <v>7</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="27">
+        <v>1</v>
+      </c>
+      <c r="I14" s="27">
+        <v>1</v>
+      </c>
+      <c r="J14" s="27">
+        <v>1</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="23"/>
+      <c r="C15" s="21">
+        <v>31</v>
+      </c>
+      <c r="D15" s="21">
+        <v>30</v>
+      </c>
+      <c r="E15" s="21">
+        <v>29</v>
+      </c>
+      <c r="F15" s="21">
+        <v>28</v>
+      </c>
+      <c r="G15" s="21">
+        <v>27</v>
+      </c>
+      <c r="H15" s="21">
+        <v>26</v>
+      </c>
+      <c r="I15" s="21">
+        <v>25</v>
+      </c>
+      <c r="J15" s="21">
+        <v>24</v>
+      </c>
+      <c r="K15" s="21">
+        <v>23</v>
+      </c>
+      <c r="L15" s="21">
+        <v>22</v>
+      </c>
+      <c r="M15" s="21">
+        <v>21</v>
+      </c>
+      <c r="N15" s="21">
+        <v>20</v>
+      </c>
+      <c r="O15" s="21">
+        <v>19</v>
+      </c>
+      <c r="P15" s="21">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>17</v>
+      </c>
+      <c r="R15" s="21">
+        <v>16</v>
+      </c>
+      <c r="S15" s="21">
+        <v>15</v>
+      </c>
+      <c r="T15" s="21">
+        <v>14</v>
+      </c>
+      <c r="U15" s="21">
+        <v>13</v>
+      </c>
+      <c r="V15" s="21">
+        <v>12</v>
+      </c>
+      <c r="W15" s="21">
+        <v>11</v>
+      </c>
+      <c r="X15" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="21">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>8</v>
+      </c>
+      <c r="AA15" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="21">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE15" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="21">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+    </row>
+    <row r="16" spans="2:36" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B18" s="6"/>
+      <c r="C18" s="21">
+        <v>31</v>
+      </c>
+      <c r="D18" s="21">
+        <v>30</v>
+      </c>
+      <c r="E18" s="21">
+        <v>29</v>
+      </c>
+      <c r="F18" s="21">
+        <v>28</v>
+      </c>
+      <c r="G18" s="21">
+        <v>27</v>
+      </c>
+      <c r="H18" s="21">
+        <v>26</v>
+      </c>
+      <c r="I18" s="21">
+        <v>25</v>
+      </c>
+      <c r="J18" s="21">
+        <v>24</v>
+      </c>
+      <c r="K18" s="21">
+        <v>23</v>
+      </c>
+      <c r="L18" s="21">
+        <v>22</v>
+      </c>
+      <c r="M18" s="21">
+        <v>21</v>
+      </c>
+      <c r="N18" s="21">
+        <v>20</v>
+      </c>
+      <c r="O18" s="21">
+        <v>19</v>
+      </c>
+      <c r="P18" s="21">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>17</v>
+      </c>
+      <c r="R18" s="21">
+        <v>16</v>
+      </c>
+      <c r="S18" s="21">
+        <v>15</v>
+      </c>
+      <c r="T18" s="21">
+        <v>14</v>
+      </c>
+      <c r="U18" s="21">
+        <v>13</v>
+      </c>
+      <c r="V18" s="21">
+        <v>12</v>
+      </c>
+      <c r="W18" s="21">
+        <v>11</v>
+      </c>
+      <c r="X18" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="21">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="21">
+        <v>6</v>
+      </c>
+      <c r="AC18" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="21">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B19" s="6"/>
+      <c r="C19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27">
+        <v>0</v>
+      </c>
+      <c r="I19" s="27">
+        <v>0</v>
+      </c>
+      <c r="J19" s="27">
+        <v>0</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="26"/>
+    </row>
+    <row r="20" spans="2:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="6"/>
+      <c r="C21" s="21">
+        <v>31</v>
+      </c>
+      <c r="D21" s="21">
+        <v>30</v>
+      </c>
+      <c r="E21" s="21">
+        <v>29</v>
+      </c>
+      <c r="F21" s="21">
+        <v>28</v>
+      </c>
+      <c r="G21" s="21">
+        <v>27</v>
+      </c>
+      <c r="H21" s="21">
+        <v>26</v>
+      </c>
+      <c r="I21" s="21">
+        <v>25</v>
+      </c>
+      <c r="J21" s="21">
+        <v>24</v>
+      </c>
+      <c r="K21" s="21">
+        <v>23</v>
+      </c>
+      <c r="L21" s="21">
+        <v>22</v>
+      </c>
+      <c r="M21" s="21">
+        <v>21</v>
+      </c>
+      <c r="N21" s="21">
+        <v>20</v>
+      </c>
+      <c r="O21" s="21">
+        <v>19</v>
+      </c>
+      <c r="P21" s="21">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>17</v>
+      </c>
+      <c r="R21" s="21">
+        <v>16</v>
+      </c>
+      <c r="S21" s="21">
+        <v>15</v>
+      </c>
+      <c r="T21" s="21">
+        <v>14</v>
+      </c>
+      <c r="U21" s="21">
+        <v>13</v>
+      </c>
+      <c r="V21" s="21">
+        <v>12</v>
+      </c>
+      <c r="W21" s="21">
+        <v>11</v>
+      </c>
+      <c r="X21" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="21">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="21">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="21">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="21">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="27">
+        <v>0</v>
+      </c>
+      <c r="I22" s="27">
+        <v>0</v>
+      </c>
+      <c r="J22" s="27">
+        <v>1</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="27">
+        <v>0</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="26"/>
+    </row>
+    <row r="24" spans="2:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C24" s="21">
+        <v>31</v>
+      </c>
+      <c r="D24" s="21">
+        <v>30</v>
+      </c>
+      <c r="E24" s="21">
+        <v>29</v>
+      </c>
+      <c r="F24" s="21">
+        <v>28</v>
+      </c>
+      <c r="G24" s="21">
+        <v>27</v>
+      </c>
+      <c r="H24" s="21">
+        <v>26</v>
+      </c>
+      <c r="I24" s="21">
+        <v>25</v>
+      </c>
+      <c r="J24" s="21">
+        <v>24</v>
+      </c>
+      <c r="K24" s="21">
+        <v>23</v>
+      </c>
+      <c r="L24" s="21">
+        <v>22</v>
+      </c>
+      <c r="M24" s="21">
+        <v>21</v>
+      </c>
+      <c r="N24" s="21">
+        <v>20</v>
+      </c>
+      <c r="O24" s="21">
+        <v>19</v>
+      </c>
+      <c r="P24" s="21">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>17</v>
+      </c>
+      <c r="R24" s="21">
+        <v>16</v>
+      </c>
+      <c r="S24" s="21">
+        <v>15</v>
+      </c>
+      <c r="T24" s="21">
+        <v>14</v>
+      </c>
+      <c r="U24" s="21">
+        <v>13</v>
+      </c>
+      <c r="V24" s="21">
+        <v>12</v>
+      </c>
+      <c r="W24" s="21">
+        <v>11</v>
+      </c>
+      <c r="X24" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>9</v>
+      </c>
+      <c r="Z24" s="21">
+        <v>8</v>
+      </c>
+      <c r="AA24" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF24" s="21">
+        <v>2</v>
+      </c>
+      <c r="AG24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C25" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="27">
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
+        <v>0</v>
+      </c>
+      <c r="J25" s="27">
+        <v>1</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="27">
+        <v>0</v>
+      </c>
+      <c r="N25" s="27">
+        <v>0</v>
+      </c>
+      <c r="O25" s="27">
+        <v>0</v>
+      </c>
+      <c r="P25" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="27">
+        <v>0</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="26"/>
+    </row>
+    <row r="27" spans="2:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C27" s="21">
+        <v>31</v>
+      </c>
+      <c r="D27" s="21">
+        <v>30</v>
+      </c>
+      <c r="E27" s="21">
+        <v>29</v>
+      </c>
+      <c r="F27" s="21">
+        <v>28</v>
+      </c>
+      <c r="G27" s="21">
+        <v>27</v>
+      </c>
+      <c r="H27" s="21">
+        <v>26</v>
+      </c>
+      <c r="I27" s="21">
+        <v>25</v>
+      </c>
+      <c r="J27" s="21">
+        <v>24</v>
+      </c>
+      <c r="K27" s="21">
+        <v>23</v>
+      </c>
+      <c r="L27" s="21">
+        <v>22</v>
+      </c>
+      <c r="M27" s="21">
+        <v>21</v>
+      </c>
+      <c r="N27" s="21">
+        <v>20</v>
+      </c>
+      <c r="O27" s="21">
+        <v>19</v>
+      </c>
+      <c r="P27" s="21">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>17</v>
+      </c>
+      <c r="R27" s="21">
+        <v>16</v>
+      </c>
+      <c r="S27" s="21">
+        <v>15</v>
+      </c>
+      <c r="T27" s="21">
+        <v>14</v>
+      </c>
+      <c r="U27" s="21">
+        <v>13</v>
+      </c>
+      <c r="V27" s="21">
+        <v>12</v>
+      </c>
+      <c r="W27" s="21">
+        <v>11</v>
+      </c>
+      <c r="X27" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="21">
+        <v>9</v>
+      </c>
+      <c r="Z27" s="21">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB27" s="21">
+        <v>6</v>
+      </c>
+      <c r="AC27" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE27" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF27" s="21">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="27">
+        <v>0</v>
+      </c>
+      <c r="I28" s="27">
+        <v>0</v>
+      </c>
+      <c r="J28" s="27">
+        <v>1</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="27">
+        <v>1</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="26"/>
+    </row>
+    <row r="30" spans="2:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C30" s="21">
+        <v>31</v>
+      </c>
+      <c r="D30" s="21">
+        <v>30</v>
+      </c>
+      <c r="E30" s="21">
+        <v>29</v>
+      </c>
+      <c r="F30" s="21">
+        <v>28</v>
+      </c>
+      <c r="G30" s="21">
+        <v>27</v>
+      </c>
+      <c r="H30" s="21">
+        <v>26</v>
+      </c>
+      <c r="I30" s="21">
+        <v>25</v>
+      </c>
+      <c r="J30" s="21">
+        <v>24</v>
+      </c>
+      <c r="K30" s="21">
+        <v>23</v>
+      </c>
+      <c r="L30" s="21">
+        <v>22</v>
+      </c>
+      <c r="M30" s="21">
+        <v>21</v>
+      </c>
+      <c r="N30" s="21">
+        <v>20</v>
+      </c>
+      <c r="O30" s="21">
+        <v>19</v>
+      </c>
+      <c r="P30" s="21">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="21">
+        <v>17</v>
+      </c>
+      <c r="R30" s="21">
+        <v>16</v>
+      </c>
+      <c r="S30" s="21">
+        <v>15</v>
+      </c>
+      <c r="T30" s="21">
+        <v>14</v>
+      </c>
+      <c r="U30" s="21">
+        <v>13</v>
+      </c>
+      <c r="V30" s="21">
+        <v>12</v>
+      </c>
+      <c r="W30" s="21">
+        <v>11</v>
+      </c>
+      <c r="X30" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y30" s="21">
+        <v>9</v>
+      </c>
+      <c r="Z30" s="21">
+        <v>8</v>
+      </c>
+      <c r="AA30" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB30" s="21">
+        <v>6</v>
+      </c>
+      <c r="AC30" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD30" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE30" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF30" s="21">
+        <v>2</v>
+      </c>
+      <c r="AG30" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C31" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="27">
+        <v>0</v>
+      </c>
+      <c r="I31" s="27">
+        <v>1</v>
+      </c>
+      <c r="J31" s="27">
+        <v>1</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="27">
+        <v>0</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="26"/>
+    </row>
+    <row r="33" spans="3:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C33" s="21">
+        <v>31</v>
+      </c>
+      <c r="D33" s="21">
+        <v>30</v>
+      </c>
+      <c r="E33" s="21">
+        <v>29</v>
+      </c>
+      <c r="F33" s="21">
+        <v>28</v>
+      </c>
+      <c r="G33" s="21">
+        <v>27</v>
+      </c>
+      <c r="H33" s="21">
+        <v>26</v>
+      </c>
+      <c r="I33" s="21">
+        <v>25</v>
+      </c>
+      <c r="J33" s="21">
+        <v>24</v>
+      </c>
+      <c r="K33" s="21">
+        <v>23</v>
+      </c>
+      <c r="L33" s="21">
+        <v>22</v>
+      </c>
+      <c r="M33" s="21">
+        <v>21</v>
+      </c>
+      <c r="N33" s="21">
+        <v>20</v>
+      </c>
+      <c r="O33" s="21">
+        <v>19</v>
+      </c>
+      <c r="P33" s="21">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>17</v>
+      </c>
+      <c r="R33" s="21">
+        <v>16</v>
+      </c>
+      <c r="S33" s="21">
+        <v>15</v>
+      </c>
+      <c r="T33" s="21">
+        <v>14</v>
+      </c>
+      <c r="U33" s="21">
+        <v>13</v>
+      </c>
+      <c r="V33" s="21">
+        <v>12</v>
+      </c>
+      <c r="W33" s="21">
+        <v>11</v>
+      </c>
+      <c r="X33" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="21">
+        <v>9</v>
+      </c>
+      <c r="Z33" s="21">
+        <v>8</v>
+      </c>
+      <c r="AA33" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB33" s="21">
+        <v>6</v>
+      </c>
+      <c r="AC33" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD33" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE33" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF33" s="21">
+        <v>2</v>
+      </c>
+      <c r="AG33" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C34" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="27">
+        <v>0</v>
+      </c>
+      <c r="I34" s="27">
+        <v>1</v>
+      </c>
+      <c r="J34" s="27">
+        <v>1</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="27">
+        <v>1</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="26"/>
+    </row>
+    <row r="36" spans="3:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C36" s="21">
+        <v>31</v>
+      </c>
+      <c r="D36" s="21">
+        <v>30</v>
+      </c>
+      <c r="E36" s="21">
+        <v>29</v>
+      </c>
+      <c r="F36" s="21">
+        <v>28</v>
+      </c>
+      <c r="G36" s="21">
+        <v>27</v>
+      </c>
+      <c r="H36" s="21">
+        <v>26</v>
+      </c>
+      <c r="I36" s="21">
+        <v>25</v>
+      </c>
+      <c r="J36" s="21">
+        <v>24</v>
+      </c>
+      <c r="K36" s="21">
+        <v>23</v>
+      </c>
+      <c r="L36" s="21">
+        <v>22</v>
+      </c>
+      <c r="M36" s="21">
+        <v>21</v>
+      </c>
+      <c r="N36" s="21">
+        <v>20</v>
+      </c>
+      <c r="O36" s="21">
+        <v>19</v>
+      </c>
+      <c r="P36" s="21">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="21">
+        <v>17</v>
+      </c>
+      <c r="R36" s="21">
+        <v>16</v>
+      </c>
+      <c r="S36" s="21">
+        <v>15</v>
+      </c>
+      <c r="T36" s="21">
+        <v>14</v>
+      </c>
+      <c r="U36" s="21">
+        <v>13</v>
+      </c>
+      <c r="V36" s="21">
+        <v>12</v>
+      </c>
+      <c r="W36" s="21">
+        <v>11</v>
+      </c>
+      <c r="X36" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y36" s="21">
+        <v>9</v>
+      </c>
+      <c r="Z36" s="21">
+        <v>8</v>
+      </c>
+      <c r="AA36" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB36" s="21">
+        <v>6</v>
+      </c>
+      <c r="AC36" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD36" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE36" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF36" s="21">
+        <v>2</v>
+      </c>
+      <c r="AG36" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C37" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="27">
+        <v>1</v>
+      </c>
+      <c r="I37" s="27">
+        <v>0</v>
+      </c>
+      <c r="J37" s="27">
+        <v>0</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="26"/>
+    </row>
+    <row r="39" spans="3:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C39" s="21">
+        <v>31</v>
+      </c>
+      <c r="D39" s="21">
+        <v>30</v>
+      </c>
+      <c r="E39" s="21">
+        <v>29</v>
+      </c>
+      <c r="F39" s="21">
+        <v>28</v>
+      </c>
+      <c r="G39" s="21">
+        <v>27</v>
+      </c>
+      <c r="H39" s="21">
+        <v>26</v>
+      </c>
+      <c r="I39" s="21">
+        <v>25</v>
+      </c>
+      <c r="J39" s="21">
+        <v>24</v>
+      </c>
+      <c r="K39" s="21">
+        <v>23</v>
+      </c>
+      <c r="L39" s="21">
+        <v>22</v>
+      </c>
+      <c r="M39" s="21">
+        <v>21</v>
+      </c>
+      <c r="N39" s="21">
+        <v>20</v>
+      </c>
+      <c r="O39" s="21">
+        <v>19</v>
+      </c>
+      <c r="P39" s="21">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="21">
+        <v>17</v>
+      </c>
+      <c r="R39" s="21">
+        <v>16</v>
+      </c>
+      <c r="S39" s="21">
+        <v>15</v>
+      </c>
+      <c r="T39" s="21">
+        <v>14</v>
+      </c>
+      <c r="U39" s="21">
+        <v>13</v>
+      </c>
+      <c r="V39" s="21">
+        <v>12</v>
+      </c>
+      <c r="W39" s="21">
+        <v>11</v>
+      </c>
+      <c r="X39" s="21">
+        <v>10</v>
+      </c>
+      <c r="Y39" s="21">
+        <v>9</v>
+      </c>
+      <c r="Z39" s="21">
+        <v>8</v>
+      </c>
+      <c r="AA39" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB39" s="21">
+        <v>6</v>
+      </c>
+      <c r="AC39" s="21">
+        <v>5</v>
+      </c>
+      <c r="AD39" s="21">
+        <v>4</v>
+      </c>
+      <c r="AE39" s="21">
+        <v>3</v>
+      </c>
+      <c r="AF39" s="21">
+        <v>2</v>
+      </c>
+      <c r="AG39" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:34" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="C40" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="27">
+        <v>1</v>
+      </c>
+      <c r="I40" s="27">
+        <v>1</v>
+      </c>
+      <c r="J40" s="27">
+        <v>1</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="S37:Z37"/>
+    <mergeCell ref="AE37:AH37"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="AE40:AH40"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="AA31:AD31"/>
+    <mergeCell ref="AE31:AH31"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="S34:Z34"/>
+    <mergeCell ref="AA34:AD34"/>
+    <mergeCell ref="AE34:AH34"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="AE25:AH25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="S28:Z28"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="AE28:AH28"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:AH19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="AE22:AH22"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="S11:Z11"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="AE11:AH11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="AE10:AH10"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="AE7:AH7"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="K4:AH4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AE5:AH5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE129819-98AA-4AAE-B2EF-A41244FCB889}">
   <dimension ref="A2:H33"/>
   <sheetViews>
